--- a/policies/โครงการชดเชยดอกเบี้ย.xlsx
+++ b/policies/โครงการชดเชยดอกเบี้ย.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\policies\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87614312-BF60-41E0-9F1D-D69B2AFE0B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="โครงการชดเชยดอกเบี้ย" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">โครงการชดเชยดอกเบี้ย!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">โครงการชดเชยดอกเบี้ย!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,12 +38,6 @@
   </si>
   <si>
     <t>กลุ่มเป้าหมาย</t>
-  </si>
-  <si>
-    <t>ระยะเวลาโครงการ_เริ่ม</t>
-  </si>
-  <si>
-    <t>ระยะเวลาโครงการ_สิ้นสุด</t>
   </si>
   <si>
     <t>มติ ครม.</t>
@@ -326,16 +325,22 @@
 ที่ความชื้น 15%</t>
     </r>
   </si>
+  <si>
+    <t>โครงการ_เริ่ม</t>
+  </si>
+  <si>
+    <t>โครงการ_สิ้นสุด</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -353,15 +358,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -380,56 +391,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,455 +784,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="49.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>2562</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2562</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2561</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>2560</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="98.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>2560</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="147.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>2560</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>2562</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="8" spans="1:10" ht="49.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>2560</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>2562</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="123" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>2560</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="123" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2559</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2559</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>2561</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>2560</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>2560</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>2560</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="G11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2558</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>2560</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>2560</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>2559</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>2559</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="49.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>2558</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>2558</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="49.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>2557</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>2558</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>2558</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>2558</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="F15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="49.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>2557</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>2557</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>2557</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="49.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>2555</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>2555</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="49.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>2554</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>2554</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>2554</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>2554</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="D19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>2553</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="C20" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>2553</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="D20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="I20" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="J20" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>